--- a/Correlations_RUVBrowsingBites.xlsx
+++ b/Correlations_RUVBrowsingBites.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,51 +370,33 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
